--- a/Reports/Linux_All.xlsx
+++ b/Reports/Linux_All.xlsx
@@ -38,100 +38,100 @@
     <t>Tests/Linux/automation/basic/FirefoxTest.MD</t>
   </si>
   <si>
-    <t>08/13/21 14:06:04</t>
+    <t>08/13/21 15:06:04</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Basic_001</t>
+  </si>
+  <si>
+    <t>ChromeTest</t>
+  </si>
+  <si>
+    <t>Tests/Linux/automation/basic/ChromeTest.MD</t>
+  </si>
+  <si>
+    <t>08/13/21 15:06:47</t>
+  </si>
+  <si>
+    <t>Remote_004</t>
+  </si>
+  <si>
+    <t>RemoteWebRtcFirefoxTest</t>
+  </si>
+  <si>
+    <t>Tests/Linux/automation/remote/RemoteWebRtcFirefoxTest.MD</t>
+  </si>
+  <si>
+    <t>08/13/21 15:12:54</t>
+  </si>
+  <si>
+    <t>Remote_003</t>
+  </si>
+  <si>
+    <t>RemoteTest</t>
+  </si>
+  <si>
+    <t>Tests/Linux/automation/remote/RemoteTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_001</t>
+  </si>
+  <si>
+    <t>AndroidTest</t>
+  </si>
+  <si>
+    <t>Tests/Linux/automation/remote/AndroidTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_002</t>
+  </si>
+  <si>
+    <t>AppiumTest</t>
+  </si>
+  <si>
+    <t>Tests/Linux/automation/remote/AppiumTest.MD</t>
+  </si>
+  <si>
+    <t>Remote_005</t>
+  </si>
+  <si>
+    <t>SaucelabsTest</t>
+  </si>
+  <si>
+    <t>Tests/Linux/automation/remote/SaucelabsTest.MD</t>
+  </si>
+  <si>
+    <t>Manual_001</t>
+  </si>
+  <si>
+    <t>Chrome manual</t>
+  </si>
+  <si>
+    <t>Tests/Linux/manual/ChromeManualTest.MD</t>
+  </si>
+  <si>
+    <t>12/21/21 16:06:47</t>
+  </si>
+  <si>
+    <t>Manual_002</t>
+  </si>
+  <si>
+    <t>Firefox manual</t>
+  </si>
+  <si>
+    <t>Tests/Linux/manual/FireFoxmanualTest.MD</t>
+  </si>
+  <si>
+    <t>12/21/21 15:06:47</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Not executed</t>
-  </si>
-  <si>
-    <t>Basic_001</t>
-  </si>
-  <si>
-    <t>ChromeTest</t>
-  </si>
-  <si>
-    <t>Tests/Linux/automation/basic/ChromeTest.MD</t>
-  </si>
-  <si>
-    <t>08/13/21 14:06:47</t>
-  </si>
-  <si>
-    <t>Remote_004</t>
-  </si>
-  <si>
-    <t>RemoteWebRtcFirefoxTest</t>
-  </si>
-  <si>
-    <t>Tests/Linux/automation/remote/RemoteWebRtcFirefoxTest.MD</t>
-  </si>
-  <si>
-    <t>08/13/21 14:12:54</t>
-  </si>
-  <si>
-    <t>Remote_003</t>
-  </si>
-  <si>
-    <t>RemoteTest</t>
-  </si>
-  <si>
-    <t>Tests/Linux/automation/remote/RemoteTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_001</t>
-  </si>
-  <si>
-    <t>AndroidTest</t>
-  </si>
-  <si>
-    <t>Tests/Linux/automation/remote/AndroidTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_002</t>
-  </si>
-  <si>
-    <t>AppiumTest</t>
-  </si>
-  <si>
-    <t>Tests/Linux/automation/remote/AppiumTest.MD</t>
-  </si>
-  <si>
-    <t>Remote_005</t>
-  </si>
-  <si>
-    <t>SaucelabsTest</t>
-  </si>
-  <si>
-    <t>Tests/Linux/automation/remote/SaucelabsTest.MD</t>
-  </si>
-  <si>
-    <t>Manual_001</t>
-  </si>
-  <si>
-    <t>Chrome manual</t>
-  </si>
-  <si>
-    <t>Tests/Linux/manual/ChromeManualTest.MD</t>
-  </si>
-  <si>
-    <t>12/21/21 15:06:47</t>
-  </si>
-  <si>
-    <t>Manual_002</t>
-  </si>
-  <si>
-    <t>Firefox manual</t>
-  </si>
-  <si>
-    <t>Tests/Linux/manual/FireFoxmanualTest.MD</t>
-  </si>
-  <si>
-    <t>12/21/21 14:06:47</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -222,10 +222,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -245,7 +245,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -268,10 +268,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
